--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glapuz\Documents\UiPath\GHD_ContractRenewal_UiPath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6BBD03-2602-47CC-8397-B168C31FC812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -159,7 +159,97 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>Contract_Renewal_Queue</t>
+  </si>
+  <si>
+    <t>InitialPath</t>
+  </si>
+  <si>
+    <t>CustomLogFilePath</t>
+  </si>
+  <si>
+    <t>\CustomLogs</t>
+  </si>
+  <si>
+    <t>WordFolder</t>
+  </si>
+  <si>
+    <t>\Output document</t>
+  </si>
+  <si>
+    <t>EmailLogFilePath</t>
+  </si>
+  <si>
+    <t>\EmailLog.xlsx</t>
+  </si>
+  <si>
+    <t>ExceptionMailTemplate</t>
+  </si>
+  <si>
+    <t>Bot has failed to complete this request due to some system failures.</t>
+  </si>
+  <si>
+    <t>InputExcelExceptionMailTemplate</t>
+  </si>
+  <si>
+    <t>Bot is not able to extract data from Supporting input informaion file due to some exception</t>
+  </si>
+  <si>
+    <t>SuccessMailTemplate</t>
+  </si>
+  <si>
+    <t>Bot has successfully generated waste classification letter for provided files.</t>
+  </si>
+  <si>
+    <t>FileExceptionMailTemplate</t>
+  </si>
+  <si>
+    <t>Some exception occurred while processing any of the provided files.</t>
+  </si>
+  <si>
+    <t>WebserviceDownMailTemplate</t>
+  </si>
+  <si>
+    <t>Bot cannot process this request as Iconnect API is down currently . Please send files again aftre 30 minutes.</t>
+  </si>
+  <si>
+    <t>FileIncorrectMailTemplate</t>
+  </si>
+  <si>
+    <t>OrchestratorFolderPath</t>
+  </si>
+  <si>
+    <t>Bot cannot process this request since the files contains an invalid data.</t>
+  </si>
+  <si>
+    <t>Contract_Renewal</t>
+  </si>
+  <si>
+    <t>\Digital Solutions Agreement_Bid.docx</t>
+  </si>
+  <si>
+    <t>WordBidTemplate</t>
+  </si>
+  <si>
+    <t>WordNonBidTemplate</t>
+  </si>
+  <si>
+    <t>\Digital Solutions Agreement_NonBid.docx</t>
+  </si>
+  <si>
+    <t>C:\GHD-ContractRenewal\</t>
+  </si>
+  <si>
+    <t>InputList</t>
+  </si>
+  <si>
+    <t>C:\GHD-ContractRenewal\Downloaded Mails\Test.xlsx</t>
+  </si>
+  <si>
+    <t>TransactionList</t>
+  </si>
+  <si>
+    <t>C:\Users\glapuz\Desktop\Contract Renewal\Input files\Excel Mapping for Contract Renewal Automation.xlsx</t>
   </si>
 </sst>
 </file>
@@ -535,18 +625,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +694,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -615,33 +705,138 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1591,23 +1786,6 @@
     <row r="979" ht="14.25" customHeight="1"/>
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,12 +1801,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1843,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1968,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2786,12 +2964,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glapuz\Documents\UiPath\GHD_ContractRenewal_UiPath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6BBD03-2602-47CC-8397-B168C31FC812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE46AA-C420-4559-A9C8-BF603B38E216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>C:\Users\glapuz\Desktop\Contract Renewal\Input files\Excel Mapping for Contract Renewal Automation.xlsx</t>
+  </si>
+  <si>
+    <t>OutputPath</t>
+  </si>
+  <si>
+    <t>C:\Users\glapuz\Desktop\Contract Renewal\Output Contract\</t>
   </si>
 </sst>
 </file>
@@ -627,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -825,7 +831,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glapuz\Documents\UiPath\GHD_ContractRenewal_UiPath\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bot-dev8\Documents\UiPath\GHD_ContractRenewal_UiPath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE46AA-C420-4559-A9C8-BF603B38E216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9403C77-114D-4D69-B69F-7A648AA8D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,13 +249,13 @@
     <t>TransactionList</t>
   </si>
   <si>
-    <t>C:\Users\glapuz\Desktop\Contract Renewal\Input files\Excel Mapping for Contract Renewal Automation.xlsx</t>
-  </si>
-  <si>
     <t>OutputPath</t>
   </si>
   <si>
-    <t>C:\Users\glapuz\Desktop\Contract Renewal\Output Contract\</t>
+    <t>C:\Users\bot-dev8\Desktop\Contract Renewal\Input files\Excel Mapping for Contract Renewal Automation.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\bot-dev8\Desktop\Contract Renewal\Output Contract\</t>
   </si>
 </sst>
 </file>
@@ -828,12 +828,12 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bot-dev8\Documents\UiPath\GHD_ContractRenewal_UiPath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9403C77-114D-4D69-B69F-7A648AA8D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7540F9-37F5-4D67-9000-A5AC26BD1D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -240,22 +240,34 @@
     <t>C:\GHD-ContractRenewal\</t>
   </si>
   <si>
-    <t>InputList</t>
-  </si>
-  <si>
     <t>C:\GHD-ContractRenewal\Downloaded Mails\Test.xlsx</t>
   </si>
   <si>
     <t>TransactionList</t>
   </si>
   <si>
-    <t>OutputPath</t>
-  </si>
-  <si>
-    <t>C:\Users\bot-dev8\Desktop\Contract Renewal\Input files\Excel Mapping for Contract Renewal Automation.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\bot-dev8\Desktop\Contract Renewal\Output Contract\</t>
+    <t>InputFileName</t>
+  </si>
+  <si>
+    <t>Input File Name</t>
+  </si>
+  <si>
+    <t>Working Folder Path</t>
+  </si>
+  <si>
+    <t>InputFolder</t>
+  </si>
+  <si>
+    <t>WorkingFolderPath</t>
+  </si>
+  <si>
+    <t>OutputFolder</t>
+  </si>
+  <si>
+    <t>Input Folder Name</t>
+  </si>
+  <si>
+    <t>Output Folder Name</t>
   </si>
 </sst>
 </file>
@@ -633,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -817,28 +829,14 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2973,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3021,10 +3019,50 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4023,5 +4061,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bot-dev8\Documents\UiPath\GHD_ContractRenewal_UiPath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7540F9-37F5-4D67-9000-A5AC26BD1D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4342A78E-179C-4F43-B431-6DA79714F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2971,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3026,9 +3026,6 @@
       <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -3037,9 +3034,6 @@
       <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
@@ -3048,9 +3042,6 @@
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -3058,9 +3049,6 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
